--- a/exp1a/output.xlsx
+++ b/exp1a/output.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen03/Dev/repos/stepDAA/exp1a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D72CF933-918B-4141-900E-5932DA9CBE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F501C17A-D2AD-1847-905B-4DB01B4E97E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> f(n)</t>
   </si>
   <si>
     <t xml:space="preserve"> -inf</t>
@@ -36,12 +33,65 @@
   <si>
     <t xml:space="preserve"> inf</t>
   </si>
+  <si>
+    <t>n+5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ln(n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ln(ln(n))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> √log(n)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> log(n)^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>n^(log(log(n)))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (√2)^log(n)</t>
+  </si>
+  <si>
+    <t>n!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2^n</t>
+  </si>
+  <si>
+    <r>
+      <t>e^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <t>(3/2)^n</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +232,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="33">
@@ -586,6 +641,4452 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n+5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output!$A$2:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output!$B$2:$B$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B313-6548-9AD7-C561A89F3172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> ln(n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output!$A$2:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output!$D$2:$D$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3025850000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9957319999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4011969999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.688879</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.912023</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0943449999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2484950000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3820269999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4998100000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.6051700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B313-6548-9AD7-C561A89F3172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> ln(ln(n))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output!$A$2:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output!$F$2:$F$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.834032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.097189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2241280000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.305323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.364055</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4096070000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4465650000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.477511</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.504035</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.52718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B313-6548-9AD7-C561A89F3172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> √log(n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output!$A$2:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output!$G$2:$G$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1406270000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2153689999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.265725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.303445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3334729999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.358344</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3795249999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.397942</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4142140000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B313-6548-9AD7-C561A89F3172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> log(n)^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output!$A$2:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output!$I$2:$I$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.035206000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.679061999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.077575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.322918999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.853113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.891356999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.568109999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.966774999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.144157</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44.140825</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B313-6548-9AD7-C561A89F3172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> (√2)^log(n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output!$A$2:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output!$K$2:$K$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1622780000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4721359999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4772259999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3245550000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0710680000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7459670000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9442719999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4868330000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B313-6548-9AD7-C561A89F3172}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="255534480"/>
+        <c:axId val="255536160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="255534480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255536160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="255536160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>f(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255534480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output!$N$2:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3628800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>479001600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87178291200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20922789888000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6402373705728000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.43290200817664E+18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0862-C946-B00B-8CADBF718DFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406057903"/>
+        <c:axId val="406059583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406057903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406059583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406059583"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>f(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406057903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(3/2)^n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output!$A$2:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output!$C$2:$C$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.665039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3325.2567300000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191751.05923300001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11057332.320939999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>637621500.21405005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36768468716.932999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2120255184830.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122264598055704</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7050392822843060</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0656117753521498E+17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C88B-594C-8458-1335B2E3716A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> 2^n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output!$A$2:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output!$E$2:$E$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1099511627776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1125899906842620</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1529215046068401E+18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.18059162071741E+21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.20892581961462E+24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.23794003928538E+27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.26765060022822E+30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C88B-594C-8458-1335B2E3716A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>e^n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output!$A$2:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output!$H$2:$H$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22026.465795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>485165195.40978998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10686474581524.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3538526683702E+17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1847055285870699E+21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1420073898156799E+26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5154386709191601E+30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5406223843934997E+34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2204032943178399E+39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6881171418161302E+43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C88B-594C-8458-1335B2E3716A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>output!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n^(log(log(n)))</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output!$A$2:$A$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output!$J$2:$J$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.953651999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>558.92380500000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2453.0777029999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7312.8560230000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17449.641769999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36002.511074000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67028.075381999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115588.14176899999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>187835.707195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>291099.65537499997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C88B-594C-8458-1335B2E3716A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="377143232"/>
+        <c:axId val="1886519136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="377143232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1886519136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1886519136"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="377143232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12362</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>118008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>11289</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{286FDB05-302D-D08E-3200-3B327D9F8458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04657531-F40A-3C12-F3D9-2895E3206170}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>328005</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>535964</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>81559</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2633049D-0F1F-5D27-F468-013C4B851F85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -882,54 +5383,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -940,34 +5444,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2">
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -990,22 +5497,25 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>22026.465795</v>
       </c>
       <c r="I3">
-        <v>22026.465795</v>
+        <v>11.035206000000001</v>
       </c>
       <c r="J3">
-        <v>11.035206000000001</v>
+        <v>53.953651999999998</v>
       </c>
       <c r="K3">
-        <v>53.953651999999998</v>
-      </c>
-      <c r="L3">
         <v>3.1622780000000001</v>
       </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1028,22 +5538,25 @@
         <v>1.1406270000000001</v>
       </c>
       <c r="H4">
-        <v>1.1406270000000001</v>
+        <v>485165195.40978998</v>
       </c>
       <c r="I4">
-        <v>485165195.40978998</v>
+        <v>18.679061999999998</v>
       </c>
       <c r="J4">
-        <v>18.679061999999998</v>
+        <v>558.92380500000002</v>
       </c>
       <c r="K4">
-        <v>558.92380500000002</v>
-      </c>
-      <c r="L4">
         <v>4.4721359999999999</v>
       </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30</v>
       </c>
@@ -1066,22 +5579,25 @@
         <v>1.2153689999999999</v>
       </c>
       <c r="H5">
-        <v>1.2153689999999999</v>
+        <v>10686474581524.4</v>
       </c>
       <c r="I5">
-        <v>10686474581524.4</v>
+        <v>24.077575</v>
       </c>
       <c r="J5">
-        <v>24.077575</v>
+        <v>2453.0777029999999</v>
       </c>
       <c r="K5">
-        <v>2453.0777029999999</v>
-      </c>
-      <c r="L5">
         <v>5.4772259999999999</v>
       </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>720</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1104,22 +5620,25 @@
         <v>1.265725</v>
       </c>
       <c r="H6">
-        <v>1.265725</v>
+        <v>2.3538526683702E+17</v>
       </c>
       <c r="I6">
-        <v>2.3538526683702E+17</v>
+        <v>28.322918999999999</v>
       </c>
       <c r="J6">
-        <v>28.322918999999999</v>
+        <v>7312.8560230000003</v>
       </c>
       <c r="K6">
-        <v>7312.8560230000003</v>
-      </c>
-      <c r="L6">
         <v>6.3245550000000001</v>
       </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>40320</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1142,22 +5661,25 @@
         <v>1.303445</v>
       </c>
       <c r="H7">
-        <v>1.303445</v>
+        <v>5.1847055285870699E+21</v>
       </c>
       <c r="I7">
-        <v>5.1847055285870699E+21</v>
+        <v>31.853113</v>
       </c>
       <c r="J7">
-        <v>31.853113</v>
+        <v>17449.641769999998</v>
       </c>
       <c r="K7">
-        <v>17449.641769999998</v>
-      </c>
-      <c r="L7">
         <v>7.0710680000000004</v>
       </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>3628800</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1180,22 +5702,25 @@
         <v>1.3334729999999999</v>
       </c>
       <c r="H8">
-        <v>1.3334729999999999</v>
+        <v>1.1420073898156799E+26</v>
       </c>
       <c r="I8">
-        <v>1.1420073898156799E+26</v>
+        <v>34.891356999999999</v>
       </c>
       <c r="J8">
-        <v>34.891356999999999</v>
+        <v>36002.511074000002</v>
       </c>
       <c r="K8">
-        <v>36002.511074000002</v>
-      </c>
-      <c r="L8">
         <v>7.7459670000000003</v>
       </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>479001600</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1218,22 +5743,25 @@
         <v>1.358344</v>
       </c>
       <c r="H9">
-        <v>1.358344</v>
+        <v>2.5154386709191601E+30</v>
       </c>
       <c r="I9">
-        <v>2.5154386709191601E+30</v>
+        <v>37.568109999999997</v>
       </c>
       <c r="J9">
-        <v>37.568109999999997</v>
+        <v>67028.075381999995</v>
       </c>
       <c r="K9">
-        <v>67028.075381999995</v>
-      </c>
-      <c r="L9">
         <v>8.3666</v>
       </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>87178291200</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>80</v>
       </c>
@@ -1256,22 +5784,25 @@
         <v>1.3795249999999999</v>
       </c>
       <c r="H10">
-        <v>1.3795249999999999</v>
+        <v>5.5406223843934997E+34</v>
       </c>
       <c r="I10">
-        <v>5.5406223843934997E+34</v>
+        <v>39.966774999999998</v>
       </c>
       <c r="J10">
-        <v>39.966774999999998</v>
+        <v>115588.14176899999</v>
       </c>
       <c r="K10">
-        <v>115588.14176899999</v>
-      </c>
-      <c r="L10">
         <v>8.9442719999999998</v>
       </c>
+      <c r="M10">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>20922789888000</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>90</v>
       </c>
@@ -1294,22 +5825,25 @@
         <v>1.397942</v>
       </c>
       <c r="H11">
-        <v>1.397942</v>
+        <v>1.2204032943178399E+39</v>
       </c>
       <c r="I11">
-        <v>1.2204032943178399E+39</v>
+        <v>42.144157</v>
       </c>
       <c r="J11">
-        <v>42.144157</v>
+        <v>187835.707195</v>
       </c>
       <c r="K11">
-        <v>187835.707195</v>
-      </c>
-      <c r="L11">
         <v>9.4868330000000007</v>
       </c>
+      <c r="M11">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>6402373705728000</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1332,418 +5866,26 @@
         <v>1.4142140000000001</v>
       </c>
       <c r="H12">
-        <v>1.4142140000000001</v>
+        <v>2.6881171418161302E+43</v>
       </c>
       <c r="I12">
-        <v>2.6881171418161302E+43</v>
+        <v>44.140825</v>
       </c>
       <c r="J12">
-        <v>44.140825</v>
+        <v>291099.65537499997</v>
       </c>
       <c r="K12">
-        <v>291099.65537499997</v>
-      </c>
-      <c r="L12">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>40320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>3628800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>479001600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>14</v>
-      </c>
-      <c r="B22">
-        <v>87178291200</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>16</v>
-      </c>
-      <c r="B23">
-        <v>20922789888000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>6402373705728000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="M12">
         <v>20</v>
       </c>
-      <c r="B25">
+      <c r="N12">
         <v>2.43290200817664E+18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/exp1a/output.xlsx
+++ b/exp1a/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen03/Dev/repos/stepDAA/exp1a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F501C17A-D2AD-1847-905B-4DB01B4E97E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80956A31-3C8F-F14B-8F34-EEEF3063934A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1665,8 +1665,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2179,8 +2180,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3058,14 +3060,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3116,6 +3172,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>f(n)</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5386,7 +5501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="75" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>

--- a/exp1a/output.xlsx
+++ b/exp1a/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen03/Dev/repos/stepDAA/exp1a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80956A31-3C8F-F14B-8F34-EEEF3063934A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C30BB5-7F30-D045-A810-78A280366B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5501,7 +5501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F18" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
